--- a/data/outputs/OR_elsevier/56.xlsx
+++ b/data/outputs/OR_elsevier/56.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS49"/>
+  <dimension ref="A1:BU49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -940,6 +950,12 @@
         <is>
           <t>2-s2.0-84926372569</t>
         </is>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1148,6 +1164,12 @@
           <t>2-s2.0-84942084967</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1371,6 +1393,12 @@
           <t>2-s2.0-84927652214</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1585,6 +1613,12 @@
         <is>
           <t>2-s2.0-84942114037</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1809,6 +1843,12 @@
           <t>2-s2.0-84927614170</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2016,6 +2056,12 @@
           <t>2-s2.0-84942107093</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2231,6 +2277,12 @@
           <t>2-s2.0-84921340294</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2446,6 +2498,12 @@
           <t>2-s2.0-84927610601</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2657,6 +2715,12 @@
           <t>2-s2.0-84930505337</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2872,6 +2936,12 @@
           <t>2-s2.0-84926288176</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3095,6 +3165,12 @@
           <t>2-s2.0-84921523728</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3309,6 +3385,12 @@
         <is>
           <t>2-s2.0-84975733085</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -3517,6 +3599,12 @@
           <t>2-s2.0-84930505131</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3732,6 +3820,12 @@
           <t>2-s2.0-84930200717</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3943,6 +4037,12 @@
           <t>2-s2.0-84926284668</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4157,6 +4257,12 @@
         <is>
           <t>2-s2.0-84942122457</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -4365,6 +4471,12 @@
           <t>2-s2.0-84921341538</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4572,6 +4684,12 @@
           <t>2-s2.0-84921395588</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4787,6 +4905,12 @@
           <t>2-s2.0-84921534288</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5012,6 +5136,12 @@
           <t>2-s2.0-84927630655</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5226,6 +5356,12 @@
         <is>
           <t>2-s2.0-84975770292</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5434,6 +5570,12 @@
           <t>2-s2.0-84926359311</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5649,6 +5791,12 @@
           <t>2-s2.0-84942107070</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5864,6 +6012,12 @@
           <t>2-s2.0-84942086371</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6078,6 +6232,12 @@
         <is>
           <t>2-s2.0-84942115647</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6286,6 +6446,12 @@
           <t>2-s2.0-84942100264</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6505,6 +6671,12 @@
           <t>2-s2.0-84942080169</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6727,6 +6899,12 @@
         <is>
           <t>2-s2.0-84921504047</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -6935,6 +7113,12 @@
           <t>2-s2.0-84921372981</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7142,6 +7326,12 @@
           <t>2-s2.0-84921365800</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7349,6 +7539,12 @@
           <t>2-s2.0-84921475729</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7556,6 +7752,12 @@
           <t>2-s2.0-84927581920</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7786,6 +7988,12 @@
         <is>
           <t>2-s2.0-84927623801</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -8010,6 +8218,12 @@
           <t>2-s2.0-84927604996</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8224,6 +8438,12 @@
         <is>
           <t>2-s2.0-84975760184</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -8432,6 +8652,12 @@
           <t>2-s2.0-84930504683</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8639,6 +8865,12 @@
           <t>2-s2.0-84930507356</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8853,6 +9085,12 @@
         <is>
           <t>2-s2.0-84930506145</t>
         </is>
+      </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -9061,6 +9299,12 @@
           <t>2-s2.0-84942123739</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9268,6 +9512,12 @@
           <t>2-s2.0-84942111792</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9474,6 +9724,12 @@
         <is>
           <t>2-s2.0-84942096107</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9690,6 +9946,12 @@
           <t>2-s2.0-84921513561</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9904,6 +10166,12 @@
         <is>
           <t>2-s2.0-84921446362</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -10112,6 +10380,12 @@
           <t>2-s2.0-84921324477</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10338,6 +10612,12 @@
         <is>
           <t>2-s2.0-84927620146</t>
         </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -10561,6 +10841,12 @@
         <is>
           <t>2-s2.0-84927592556</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -10761,6 +11047,12 @@
           <t>2-s2.0-84927592025</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10968,6 +11260,12 @@
           <t>2-s2.0-84927611929</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
